--- a/DiverFlasher/documents/DiverFlasher Berechnung Batterielebensdauer.xlsx
+++ b/DiverFlasher/documents/DiverFlasher Berechnung Batterielebensdauer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bekone01-my.sharepoint.com/personal/juergen_eggeling_beko-technologies_com/Documents/_Projekte/_Bastelprojekte/Diver_led_tools/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juerg\Documents\_Workspaces\diver_led_tools\DiverFlasher\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{1F5C14A2-5B22-4E56-A588-004129072128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA49884C-59EF-487C-A2DD-DBE40882CF13}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99732F94-DACD-4133-8EAF-7CEFE3753476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59160" yWindow="300" windowWidth="11775" windowHeight="16065" xr2:uid="{3D13BB90-99D2-4932-BFFD-2EFBA2A83505}"/>
+    <workbookView xWindow="26740" yWindow="-4360" windowWidth="26500" windowHeight="18990" xr2:uid="{3D13BB90-99D2-4932-BFFD-2EFBA2A83505}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Grunddaten Batterie / Anwendung</t>
   </si>
@@ -149,7 +149,31 @@
     <t>nicht bei jedem TG!</t>
   </si>
   <si>
-    <t>RECHNUNG MÖGLICHERWEISE NOCH NICHT KORREKT =&gt; NACHPRÜFEN!</t>
+    <t>Diese Art der Rechnung ist auf Grund der sporadischen Nutzung wenig hilfreich</t>
+  </si>
+  <si>
+    <t>=&gt; Betrachtung von Standby und Betriebsstunden getrennt macht mehr Sinn</t>
+  </si>
+  <si>
+    <t>Neuer Ansatz</t>
+  </si>
+  <si>
+    <t>Standby-Zeit ohne Betrieb in Jahren</t>
+  </si>
+  <si>
+    <t>Jahre</t>
+  </si>
+  <si>
+    <t>Mehr als ausreichend!</t>
+  </si>
+  <si>
+    <t>Betriebsstunden (ohne Standby)</t>
+  </si>
+  <si>
+    <t>Stunden</t>
+  </si>
+  <si>
+    <t>Reicht mehr als ein Jahr!</t>
   </si>
 </sst>
 </file>
@@ -271,7 +295,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
@@ -288,6 +312,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Berechnung" xfId="4" builtinId="22"/>
@@ -626,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC24812-2FB1-400B-9447-6FC4F67B82F5}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -911,6 +936,46 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
     </row>
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.4">
+      <c r="A31" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="6">
+        <f>B22/B23</f>
+        <v>5.5474655016989107</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="6">
+        <f>B22/B19</f>
+        <v>19.064641048555259</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
